--- a/public/assets/categories.xlsx
+++ b/public/assets/categories.xlsx
@@ -22,7 +22,7 @@
     <t>Day</t>
   </si>
   <si>
-    <t xml:space="preserve">Show Time From </t>
+    <t>Show Time From</t>
   </si>
   <si>
     <t>Show Time To</t>
